--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="28830" windowHeight="4140" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="28830" windowHeight="4140" tabRatio="737" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="сводная таблица" sheetId="2" r:id="rId3"/>
     <sheet name="мебель" sheetId="17" r:id="rId4"/>
     <sheet name="техника" sheetId="18" r:id="rId5"/>
-    <sheet name="Лист19" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -1762,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView topLeftCell="O64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1933,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>552</v>
+        <v>431</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2048,7 +2047,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1204</v>
+        <v>1000</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2162,7 +2161,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1446</v>
+        <v>1642</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2267,7 +2266,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1582</v>
+        <v>1473</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2381,7 +2380,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1453</v>
+        <v>1890</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2495,7 +2494,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>2351</v>
+        <v>1725</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -2609,7 +2608,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2274</v>
+        <v>2059</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -2723,7 +2722,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2303</v>
+        <v>2473</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -2837,7 +2836,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2378</v>
+        <v>2424</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -2948,7 +2947,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>2629</v>
+        <v>2886</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3170,7 +3169,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3456</v>
+        <v>3350</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3281,7 +3280,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>4245</v>
+        <v>4250</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3392,7 +3391,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>4043</v>
+        <v>4010</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3503,7 +3502,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4053</v>
+        <v>4510</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -3614,7 +3613,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4800</v>
+        <v>4284</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -3725,7 +3724,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>5094</v>
+        <v>4695</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -3836,7 +3835,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>5119</v>
+        <v>5289</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -3947,7 +3946,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5114</v>
+        <v>5206</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4058,7 +4057,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5633</v>
+        <v>5860</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4169,7 +4168,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5441</v>
+        <v>6197</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4280,7 +4279,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>5686</v>
+        <v>6025</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4391,7 +4390,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>5931</v>
+        <v>6607</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4502,7 +4501,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6999</v>
+        <v>6311</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -4613,7 +4612,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>7206</v>
+        <v>6404</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -4724,7 +4723,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7468</v>
+        <v>7039</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -4835,7 +4834,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>6981</v>
+        <v>6971</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -4946,7 +4945,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7802</v>
+        <v>7444</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5057,7 +5056,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7615</v>
+        <v>7838</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5168,7 +5167,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>7967</v>
+        <v>8251</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5279,7 +5278,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>7963</v>
+        <v>8515</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5390,7 +5389,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8127</v>
+        <v>8427</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5501,7 +5500,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>8562</v>
+        <v>8679</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -5612,7 +5611,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>9170</v>
+        <v>8858</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9425</v>
+        <v>9138</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -5834,7 +5833,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9303</v>
+        <v>9678</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -5945,7 +5944,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9688</v>
+        <v>9679</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6056,7 +6055,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10361</v>
+        <v>10477</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6167,7 +6166,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>9999</v>
+        <v>10088</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6278,7 +6277,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10383</v>
+        <v>10767</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6389,7 +6388,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>11220</v>
+        <v>11038</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6500,7 +6499,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>10713</v>
+        <v>10744</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -6611,7 +6610,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11472</v>
+        <v>11036</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -6722,7 +6721,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11588</v>
+        <v>11151</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -6833,7 +6832,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11469</v>
+        <v>12211</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -6944,7 +6943,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>12017</v>
+        <v>12394</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7055,7 +7054,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12505</v>
+        <v>12565</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7166,7 +7165,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12454</v>
+        <v>12535</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7277,7 +7276,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12809</v>
+        <v>12569</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7388,7 +7387,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>12825</v>
+        <v>13203</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7499,7 +7498,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13275</v>
+        <v>13445</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -7610,7 +7609,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13140</v>
+        <v>13259</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -7721,7 +7720,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>13507</v>
+        <v>13509</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -7832,7 +7831,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>14296</v>
+        <v>14198</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -7943,7 +7942,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14360</v>
+        <v>13863</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8054,7 +8053,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14283</v>
+        <v>14918</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8165,7 +8164,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14702</v>
+        <v>14747</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8276,7 +8275,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>14993</v>
+        <v>14685</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8387,7 +8386,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15564</v>
+        <v>15490</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8498,7 +8497,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15611</v>
+        <v>15807</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -8609,7 +8608,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>15826</v>
+        <v>16049</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -8720,7 +8719,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16438</v>
+        <v>15879</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -8831,7 +8830,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16170</v>
+        <v>16258</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -8942,7 +8941,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16364</v>
+        <v>16724</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -8984,7 +8983,7 @@
         <v>89</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J97" si="22">VLOOKUP(I66,$L$101:$M$109,2,FALSE)</f>
+        <f t="shared" ref="J66" si="22">VLOOKUP(I66,$L$101:$M$109,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="K66" t="str">
@@ -9053,7 +9052,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>16398</v>
+        <v>16496</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9164,7 +9163,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>16950</v>
+        <v>17280</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9275,7 +9274,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>16940</v>
+        <v>17004</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9386,7 +9385,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17541</v>
+        <v>17392</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9497,7 +9496,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17730</v>
+        <v>17446</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -9608,7 +9607,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>17609</v>
+        <v>17607</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -9719,7 +9718,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18582</v>
+        <v>18532</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -9830,7 +9829,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18836</v>
+        <v>18180</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -9941,7 +9940,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18771</v>
+        <v>18465</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10052,7 +10051,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>18877</v>
+        <v>19390</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10163,7 +10162,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19432</v>
+        <v>19554</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10274,7 +10273,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19366</v>
+        <v>19231</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10385,7 +10384,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>20213</v>
+        <v>19381</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10496,7 +10495,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>19944</v>
+        <v>20336</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -10607,7 +10606,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>20403</v>
+        <v>19877</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -10718,7 +10717,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20696</v>
+        <v>20117</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -10829,7 +10828,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>20653</v>
+        <v>20730</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -10940,7 +10939,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21151</v>
+        <v>21474</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11051,7 +11050,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>20889</v>
+        <v>20964</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11162,7 +11161,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21387</v>
+        <v>21961</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11273,7 +11272,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21529</v>
+        <v>22092</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11384,7 +11383,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>22244</v>
+        <v>22417</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11495,7 +11494,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>22312</v>
+        <v>21909</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -11606,7 +11605,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22305</v>
+        <v>22268</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -11717,7 +11716,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22801</v>
+        <v>22710</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -11828,7 +11827,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>22996</v>
+        <v>23282</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -11939,7 +11938,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23578</v>
+        <v>23244</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12050,7 +12049,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23155</v>
+        <v>23645</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12161,7 +12160,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23612</v>
+        <v>23982</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12272,7 +12271,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>24311</v>
+        <v>24316</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12383,7 +12382,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>23957</v>
+        <v>23985</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -12599,7 +12598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
@@ -25649,7 +25648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D52" sqref="D52:D55"/>
     </sheetView>
   </sheetViews>
@@ -26382,24 +26381,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="28830" windowHeight="4140" tabRatio="737" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="28830" windowHeight="4080" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -1761,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>431</v>
+        <v>690</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1642</v>
+        <v>1721</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1473</v>
+        <v>1785</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1890</v>
+        <v>2064</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1725</v>
+        <v>1668</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2059</v>
+        <v>2090</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2473</v>
+        <v>2171</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2424</v>
+        <v>2801</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>2886</v>
+        <v>3043</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3352</v>
+        <v>3041</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3350</v>
+        <v>3617</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>4250</v>
+        <v>3951</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>4010</v>
+        <v>4402</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4510</v>
+        <v>3914</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4284</v>
+        <v>4740</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4695</v>
+        <v>4841</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>5289</v>
+        <v>4754</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5206</v>
+        <v>5318</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5860</v>
+        <v>5695</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>6197</v>
+        <v>5812</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>6025</v>
+        <v>5804</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6607</v>
+        <v>6635</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6311</v>
+        <v>6822</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6404</v>
+        <v>6660</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7039</v>
+        <v>7222</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>6971</v>
+        <v>7260</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7444</v>
+        <v>7626</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7838</v>
+        <v>7451</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>8251</v>
+        <v>7801</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>8515</v>
+        <v>8033</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8427</v>
+        <v>8101</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>8679</v>
+        <v>9222</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>8858</v>
+        <v>8614</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9138</v>
+        <v>9142</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9678</v>
+        <v>9827</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9679</v>
+        <v>9400</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10477</v>
+        <v>9928</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>10088</v>
+        <v>10346</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10767</v>
+        <v>10828</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>11038</v>
+        <v>10742</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>10744</v>
+        <v>10901</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11036</v>
+        <v>11625</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11151</v>
+        <v>11120</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>12211</v>
+        <v>11409</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>12394</v>
+        <v>11613</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12565</v>
+        <v>12112</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12535</v>
+        <v>12691</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12569</v>
+        <v>12731</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>13203</v>
+        <v>12840</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13445</v>
+        <v>13415</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13259</v>
+        <v>13957</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>13509</v>
+        <v>13463</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>14198</v>
+        <v>13683</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>13863</v>
+        <v>14504</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14918</v>
+        <v>14260</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14747</v>
+        <v>14362</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>14685</v>
+        <v>14999</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15490</v>
+        <v>14963</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15807</v>
+        <v>15194</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>16049</v>
+        <v>16071</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>15879</v>
+        <v>16259</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16258</v>
+        <v>16489</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16724</v>
+        <v>16988</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>16496</v>
+        <v>16599</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>17280</v>
+        <v>16845</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17004</v>
+        <v>17260</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9385,7 +9385,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17392</v>
+        <v>17951</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17446</v>
+        <v>17673</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -9607,7 +9607,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>17607</v>
+        <v>18210</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18532</v>
+        <v>18072</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18180</v>
+        <v>18472</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18465</v>
+        <v>18447</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19390</v>
+        <v>19310</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10162,7 +10162,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19554</v>
+        <v>19209</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19231</v>
+        <v>19661</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>19381</v>
+        <v>19694</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>20336</v>
+        <v>20305</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>19877</v>
+        <v>20530</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20117</v>
+        <v>20618</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>20730</v>
+        <v>20559</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21474</v>
+        <v>20975</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>20964</v>
+        <v>21092</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21961</v>
+        <v>21993</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>22092</v>
+        <v>21376</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>22417</v>
+        <v>22081</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>21909</v>
+        <v>21969</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22268</v>
+        <v>22562</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22710</v>
+        <v>23158</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>23282</v>
+        <v>22954</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23244</v>
+        <v>23165</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23645</v>
+        <v>23530</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23982</v>
+        <v>23635</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>24316</v>
+        <v>23739</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>23985</v>
+        <v>24304</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -25648,8 +25648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D55"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="28830" windowHeight="4080" tabRatio="737" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="28830" windowHeight="4080" tabRatio="737" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="сводная таблица" sheetId="2" r:id="rId3"/>
     <sheet name="мебель" sheetId="17" r:id="rId4"/>
     <sheet name="техника" sheetId="18" r:id="rId5"/>
+    <sheet name="комфорт" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="270">
   <si>
     <t>гостиная</t>
   </si>
@@ -747,6 +748,90 @@
   </si>
   <si>
     <t>Табуретка Самсколотил</t>
+  </si>
+  <si>
+    <t>+ к зп</t>
+  </si>
+  <si>
+    <t>+ к плодовитости</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>комфорт</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>+ к кол-ву пар</t>
   </si>
 </sst>
 </file>
@@ -832,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,6 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1148,7 +1234,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:P29"/>
+      <selection activeCell="A16" sqref="A16:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +2019,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>690</v>
+        <v>746</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2047,7 +2133,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2161,7 +2247,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1721</v>
+        <v>1031</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2266,7 +2352,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1785</v>
+        <v>1176</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2380,7 +2466,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2494,7 +2580,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1668</v>
+        <v>2248</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -2608,7 +2694,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2090</v>
+        <v>2162</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -2722,7 +2808,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2171</v>
+        <v>2958</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -2836,7 +2922,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2801</v>
+        <v>2826</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -2947,7 +3033,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>3043</v>
+        <v>3427</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3058,7 +3144,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3041</v>
+        <v>3112</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3169,7 +3255,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3617</v>
+        <v>3449</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3280,7 +3366,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>3951</v>
+        <v>3742</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3391,7 +3477,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>4402</v>
+        <v>3608</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3502,7 +3588,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>3914</v>
+        <v>4643</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -3613,7 +3699,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4740</v>
+        <v>4149</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -3724,7 +3810,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4841</v>
+        <v>4773</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -3835,7 +3921,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>4754</v>
+        <v>5015</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -3946,7 +4032,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5318</v>
+        <v>4969</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4057,7 +4143,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5695</v>
+        <v>5132</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4168,7 +4254,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5812</v>
+        <v>5566</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4279,7 +4365,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>5804</v>
+        <v>5987</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4390,7 +4476,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6635</v>
+        <v>6565</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4501,7 +4587,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6822</v>
+        <v>6847</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -4612,7 +4698,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6660</v>
+        <v>6766</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -4723,7 +4809,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7222</v>
+        <v>6850</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -4834,7 +4920,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7260</v>
+        <v>7401</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -4945,7 +5031,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7626</v>
+        <v>7606</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5056,7 +5142,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7451</v>
+        <v>7973</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5167,7 +5253,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>7801</v>
+        <v>8392</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5278,7 +5364,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>8033</v>
+        <v>7855</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5389,7 +5475,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8101</v>
+        <v>8614</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5500,7 +5586,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>9222</v>
+        <v>8982</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -5611,7 +5697,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>8614</v>
+        <v>9174</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -5722,7 +5808,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9142</v>
+        <v>9313</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -5833,7 +5919,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9827</v>
+        <v>9439</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -5944,7 +6030,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9400</v>
+        <v>9735</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6055,7 +6141,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>9928</v>
+        <v>10131</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6166,7 +6252,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>10346</v>
+        <v>10013</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6277,7 +6363,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10828</v>
+        <v>10755</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6388,7 +6474,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>10742</v>
+        <v>10396</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6499,7 +6585,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>10901</v>
+        <v>11403</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -6610,7 +6696,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11625</v>
+        <v>11704</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -6721,7 +6807,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11120</v>
+        <v>11278</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -6832,7 +6918,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11409</v>
+        <v>12109</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -6943,7 +7029,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>11613</v>
+        <v>12405</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7054,7 +7140,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12112</v>
+        <v>11898</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7165,7 +7251,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12691</v>
+        <v>12317</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7276,7 +7362,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12731</v>
+        <v>12647</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7387,7 +7473,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>12840</v>
+        <v>12675</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7498,7 +7584,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13415</v>
+        <v>12999</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -7609,7 +7695,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13957</v>
+        <v>13183</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -7720,7 +7806,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>13463</v>
+        <v>13557</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -7831,7 +7917,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>13683</v>
+        <v>13643</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -7942,7 +8028,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14504</v>
+        <v>14428</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8053,7 +8139,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14260</v>
+        <v>14958</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8164,7 +8250,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14362</v>
+        <v>14736</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8275,7 +8361,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>14999</v>
+        <v>15256</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8386,7 +8472,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>14963</v>
+        <v>15026</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8497,7 +8583,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15194</v>
+        <v>15308</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -8608,7 +8694,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>16071</v>
+        <v>15679</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -8719,7 +8805,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16259</v>
+        <v>15968</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -8830,7 +8916,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16489</v>
+        <v>16568</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -8941,7 +9027,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16988</v>
+        <v>16323</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9052,7 +9138,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>16599</v>
+        <v>17068</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9163,7 +9249,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>16845</v>
+        <v>17200</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9274,7 +9360,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17260</v>
+        <v>17499</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9385,7 +9471,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17951</v>
+        <v>17904</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9496,7 +9582,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17673</v>
+        <v>17917</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -9607,7 +9693,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>18210</v>
+        <v>18367</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -9718,7 +9804,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18072</v>
+        <v>17893</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -9829,7 +9915,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18472</v>
+        <v>18765</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -9940,7 +10026,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18447</v>
+        <v>19024</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10051,7 +10137,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19310</v>
+        <v>18823</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10162,7 +10248,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19209</v>
+        <v>18855</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10273,7 +10359,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19661</v>
+        <v>19538</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10384,7 +10470,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>19694</v>
+        <v>20089</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10495,7 +10581,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>20305</v>
+        <v>20435</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -10606,7 +10692,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>20530</v>
+        <v>19983</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -10717,7 +10803,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20618</v>
+        <v>20839</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -10828,7 +10914,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>20559</v>
+        <v>20829</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -10939,7 +11025,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>20975</v>
+        <v>21291</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11050,7 +11136,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21092</v>
+        <v>21374</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11161,7 +11247,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21993</v>
+        <v>21875</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11272,7 +11358,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21376</v>
+        <v>21864</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11383,7 +11469,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>22081</v>
+        <v>22026</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11494,7 +11580,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>21969</v>
+        <v>22589</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -11605,7 +11691,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22562</v>
+        <v>22500</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -11716,7 +11802,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>23158</v>
+        <v>22891</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -11827,7 +11913,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>22954</v>
+        <v>23436</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -11938,7 +12024,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23165</v>
+        <v>23376</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12049,7 +12135,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23530</v>
+        <v>23221</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12160,7 +12246,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23635</v>
+        <v>23742</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12271,7 +12357,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>23739</v>
+        <v>23802</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12382,7 +12468,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24304</v>
+        <v>24645</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -26381,4 +26467,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="28830" windowHeight="4080" tabRatio="737" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="165" windowWidth="28830" windowHeight="4020" tabRatio="737" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="271">
   <si>
     <t>гостиная</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>+ к кол-ву пар</t>
+  </si>
+  <si>
+    <t>+ к анкетам невест</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>746</v>
+        <v>1137</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2133,7 +2136,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>998</v>
+        <v>778</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1031</v>
+        <v>1441</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1176</v>
+        <v>1928</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2466,7 +2469,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>2059</v>
+        <v>1548</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>2248</v>
+        <v>1896</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2162</v>
+        <v>2634</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2958</v>
+        <v>2616</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2826</v>
+        <v>2864</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -3033,7 +3036,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3112</v>
+        <v>3176</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3255,7 +3258,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3449</v>
+        <v>3369</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>3742</v>
+        <v>4075</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3477,7 +3480,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>3608</v>
+        <v>4164</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3588,7 +3591,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4643</v>
+        <v>4227</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -3699,7 +3702,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4149</v>
+        <v>4394</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -3810,7 +3813,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4773</v>
+        <v>4396</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -3921,7 +3924,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>5015</v>
+        <v>5457</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -4032,7 +4035,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>4969</v>
+        <v>5397</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4143,7 +4146,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5132</v>
+        <v>5359</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4254,7 +4257,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5566</v>
+        <v>5877</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4365,7 +4368,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>5987</v>
+        <v>6263</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6565</v>
+        <v>6500</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4587,7 +4590,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6847</v>
+        <v>6662</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6766</v>
+        <v>6553</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>6850</v>
+        <v>7065</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -4920,7 +4923,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7401</v>
+        <v>7740</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -5031,7 +5034,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7606</v>
+        <v>7528</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5142,7 +5145,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7973</v>
+        <v>7640</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>8392</v>
+        <v>8376</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5364,7 +5367,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>7855</v>
+        <v>8585</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5475,7 +5478,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8614</v>
+        <v>8924</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5586,7 +5589,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>8982</v>
+        <v>8909</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -5697,7 +5700,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>9174</v>
+        <v>9085</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -5808,7 +5811,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9313</v>
+        <v>8929</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -5919,7 +5922,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9439</v>
+        <v>9824</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -6030,7 +6033,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9735</v>
+        <v>10050</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6141,7 +6144,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10131</v>
+        <v>10247</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6252,7 +6255,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>10013</v>
+        <v>9892</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6363,7 +6366,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10755</v>
+        <v>10980</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6474,7 +6477,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>10396</v>
+        <v>10483</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6585,7 +6588,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>11403</v>
+        <v>11073</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -6696,7 +6699,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11704</v>
+        <v>11284</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -6807,7 +6810,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11278</v>
+        <v>11329</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -6918,7 +6921,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>12109</v>
+        <v>11373</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -7029,7 +7032,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>12405</v>
+        <v>11737</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7140,7 +7143,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>11898</v>
+        <v>12443</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7251,7 +7254,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12317</v>
+        <v>12729</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7362,7 +7365,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12647</v>
+        <v>12478</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7473,7 +7476,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>12675</v>
+        <v>13408</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7584,7 +7587,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>12999</v>
+        <v>13535</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -7695,7 +7698,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13183</v>
+        <v>13590</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -7806,7 +7809,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>13557</v>
+        <v>14064</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -7917,7 +7920,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>13643</v>
+        <v>13914</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -8028,7 +8031,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14428</v>
+        <v>14034</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8139,7 +8142,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14958</v>
+        <v>14960</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8250,7 +8253,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14736</v>
+        <v>14575</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8361,7 +8364,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>15256</v>
+        <v>14640</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8472,7 +8475,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15026</v>
+        <v>14980</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8583,7 +8586,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15308</v>
+        <v>15920</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -8694,7 +8697,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>15679</v>
+        <v>16152</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -8805,7 +8808,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>15968</v>
+        <v>16047</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -8916,7 +8919,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16568</v>
+        <v>16484</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -9027,7 +9030,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16323</v>
+        <v>16492</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9138,7 +9141,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>17068</v>
+        <v>16958</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9249,7 +9252,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>17200</v>
+        <v>16778</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9360,7 +9363,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17499</v>
+        <v>17065</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9471,7 +9474,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17904</v>
+        <v>17303</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9582,7 +9585,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17917</v>
+        <v>17795</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -9693,7 +9696,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>18367</v>
+        <v>18159</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -9804,7 +9807,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>17893</v>
+        <v>18463</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -9915,7 +9918,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18765</v>
+        <v>18660</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -10026,7 +10029,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>19024</v>
+        <v>18726</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10137,7 +10140,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>18823</v>
+        <v>19388</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10248,7 +10251,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>18855</v>
+        <v>19452</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10359,7 +10362,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19538</v>
+        <v>19739</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10470,7 +10473,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>20089</v>
+        <v>19998</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10581,7 +10584,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>20435</v>
+        <v>19909</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -10692,7 +10695,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>19983</v>
+        <v>20551</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -10803,7 +10806,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20839</v>
+        <v>20499</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -10914,7 +10917,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>20829</v>
+        <v>21034</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -11025,7 +11028,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21291</v>
+        <v>20853</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11136,7 +11139,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21374</v>
+        <v>21652</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11247,7 +11250,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21875</v>
+        <v>21527</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11358,7 +11361,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21864</v>
+        <v>21527</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11469,7 +11472,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>22026</v>
+        <v>21675</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11580,7 +11583,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>22589</v>
+        <v>21859</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -11691,7 +11694,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22500</v>
+        <v>22390</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -11802,7 +11805,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22891</v>
+        <v>22759</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -11913,7 +11916,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>23436</v>
+        <v>22830</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -12024,7 +12027,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23376</v>
+        <v>23085</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12135,7 +12138,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23221</v>
+        <v>23288</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12246,7 +12249,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23742</v>
+        <v>23456</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12357,7 +12360,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>23802</v>
+        <v>23883</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12468,7 +12471,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24645</v>
+        <v>24532</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -26471,10 +26474,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26482,10 +26485,12 @@
     <col min="1" max="2" width="18.85546875" style="9" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>246</v>
       </c>
@@ -26498,8 +26503,11 @@
       <c r="E1" s="9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -26512,8 +26520,14 @@
       <c r="D2" s="9" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -26526,11 +26540,14 @@
       <c r="D3" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -26544,7 +26561,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -26557,11 +26574,14 @@
       <c r="D5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -26575,7 +26595,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -26588,11 +26608,8 @@
       <c r="D7" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -26605,8 +26622,14 @@
       <c r="D8" s="9" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -26619,11 +26642,8 @@
       <c r="D9" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -26637,7 +26657,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -26650,8 +26670,11 @@
       <c r="D11" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="165" windowWidth="28830" windowHeight="4020" tabRatio="737" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="165" windowWidth="28830" windowHeight="4020" tabRatio="737" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="мебель" sheetId="17" r:id="rId4"/>
     <sheet name="техника" sheetId="18" r:id="rId5"/>
     <sheet name="комфорт" sheetId="19" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="401">
   <si>
     <t>гостиная</t>
   </si>
@@ -835,13 +836,403 @@
   </si>
   <si>
     <t>+ к анкетам невест</t>
+  </si>
+  <si>
+    <t>здание</t>
+  </si>
+  <si>
+    <t>бафф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">продуктовый магазин </t>
+  </si>
+  <si>
+    <t xml:space="preserve">лесопилка </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "дерево"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мастерская </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "металл"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предприятие </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "пластик"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">цех </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "микроэлектроника"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фабрика </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "одежда"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">карьер </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "камень"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хим.завод </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "химия"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">школа логики </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> повышает интеллект выбранного персонажа на 1. закупка сырья, производство баффов на след.ход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">школа обаяния </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> повышает харизму выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">школа спорта </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> повышает силу выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">школа искусств </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> повышает творчество выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">школа профориентации </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сменить призвание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">курсы повышения квалификации </t>
+  </si>
+  <si>
+    <t xml:space="preserve">курорт </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> исправление обычной части тела у выбранного персонажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">генетическая лаборатория </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> клонировать персонажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">банк </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> кредит или депозит на ход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дет.дом </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> взять приемного ребенка</t>
+  </si>
+  <si>
+    <t>описание</t>
+  </si>
+  <si>
+    <t>продает, тип</t>
+  </si>
+  <si>
+    <t>продает, что</t>
+  </si>
+  <si>
+    <t>ресурс</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>metall</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>microelectronics</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <t>действие</t>
+  </si>
+  <si>
+    <t>интеллект</t>
+  </si>
+  <si>
+    <t>харизма</t>
+  </si>
+  <si>
+    <t>сила</t>
+  </si>
+  <si>
+    <t>творчество</t>
+  </si>
+  <si>
+    <t>повышение навыка</t>
+  </si>
+  <si>
+    <t>призвание</t>
+  </si>
+  <si>
+    <t>изменение</t>
+  </si>
+  <si>
+    <t>часть тела</t>
+  </si>
+  <si>
+    <t>клонирование</t>
+  </si>
+  <si>
+    <t>кредит или депозит</t>
+  </si>
+  <si>
+    <t>деньги</t>
+  </si>
+  <si>
+    <t>приемыш</t>
+  </si>
+  <si>
+    <t>пара</t>
+  </si>
+  <si>
+    <t>доминант отца</t>
+  </si>
+  <si>
+    <t>доминант матери</t>
+  </si>
+  <si>
+    <t>генетическая модификация</t>
+  </si>
+  <si>
+    <t>бафф на сыновей</t>
+  </si>
+  <si>
+    <t>бафф на дочерей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> покупка ресурсов "продукты". </t>
+  </si>
+  <si>
+    <t>производство</t>
+  </si>
+  <si>
+    <t>закупка сырья, производство ресурсов на след.ход</t>
+  </si>
+  <si>
+    <t>закупка сырья, производство услуг на след.ход</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>res_food</t>
+  </si>
+  <si>
+    <t>res_wood</t>
+  </si>
+  <si>
+    <t>res_metall</t>
+  </si>
+  <si>
+    <t>res_plastic</t>
+  </si>
+  <si>
+    <t>res_microelectronics</t>
+  </si>
+  <si>
+    <t>res_cloth</t>
+  </si>
+  <si>
+    <t>res_stone</t>
+  </si>
+  <si>
+    <t>res_chemical</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>omletik</t>
+  </si>
+  <si>
+    <t>Покупка ресурсов: фирма, кол-во, купить</t>
+  </si>
+  <si>
+    <t>Услуги: фирма, персонаж, применить</t>
+  </si>
+  <si>
+    <t>Навыки: фирма, персонаж, применить</t>
+  </si>
+  <si>
+    <t>ch_nose_1</t>
+  </si>
+  <si>
+    <t>ch_vocation_1</t>
+  </si>
+  <si>
+    <t>inc_creativity_1</t>
+  </si>
+  <si>
+    <t>inc_strength_1</t>
+  </si>
+  <si>
+    <t>inc_charisma_1</t>
+  </si>
+  <si>
+    <t>inc_intellect_1</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>Увеличение семьи: фирма, применить</t>
+  </si>
+  <si>
+    <t>random_child</t>
+  </si>
+  <si>
+    <t>inc_pairs</t>
+  </si>
+  <si>
+    <t>Покупка баффов: фирма, кол-во, купить</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +50% к зп</t>
+  </si>
+  <si>
+    <t>buff_salary</t>
+  </si>
+  <si>
+    <t>buff_child</t>
+  </si>
+  <si>
+    <t>buff_fertility</t>
+  </si>
+  <si>
+    <t>buff_father</t>
+  </si>
+  <si>
+    <t>buff_mother</t>
+  </si>
+  <si>
+    <t>buff_genmod</t>
+  </si>
+  <si>
+    <t>buff_son</t>
+  </si>
+  <si>
+    <t>buff_daughter</t>
+  </si>
+  <si>
+    <t>плодовитости</t>
+  </si>
+  <si>
+    <t>+1 ребенок</t>
+  </si>
+  <si>
+    <t>парк отдыха</t>
+  </si>
+  <si>
+    <t>бойцовский клуб</t>
+  </si>
+  <si>
+    <t>курсы рукоделия</t>
+  </si>
+  <si>
+    <t>клиника пластической хирургии</t>
+  </si>
+  <si>
+    <t>апартаменты</t>
+  </si>
+  <si>
+    <t>спа-салон</t>
+  </si>
+  <si>
+    <t>стадион</t>
+  </si>
+  <si>
+    <t>+1 невеста на ход</t>
+  </si>
+  <si>
+    <t>inc_fiancee</t>
+  </si>
+  <si>
+    <t>+1 пара на ход</t>
+  </si>
+  <si>
+    <t>лаборатория облучения</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>невеста</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +1247,23 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -920,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,6 +1341,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1237,7 +1649,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,6 +2029,9 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
@@ -1629,7 +2044,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('хижина');</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1641,7 +2056,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('маленький домик');</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +2068,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('уютный домик');</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +2080,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('средний дом');</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +2092,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('большой дом');</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +2104,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('особняк');</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +2116,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('усадьба');</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +2128,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('фазенда');</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +2140,7 @@
         <v>INSERT INTO `house`(`name`) VALUES ('вилла');</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1735,97 +2150,6 @@
       <c r="N25" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `house`(`name`) VALUES ('дворец');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29" t="s">
-        <v>151</v>
-      </c>
-      <c r="N29" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" t="s">
-        <v>153</v>
-      </c>
-      <c r="P29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2346,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>1137</v>
+        <v>458</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2136,7 +2460,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>778</v>
+        <v>1470</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2250,7 +2574,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1441</v>
+        <v>1733</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2355,7 +2679,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1928</v>
+        <v>1425</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2469,7 +2793,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>1548</v>
+        <v>2179</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2583,7 +2907,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>1896</v>
+        <v>2354</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -2697,7 +3021,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2634</v>
+        <v>2399</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -2811,7 +3135,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2616</v>
+        <v>2383</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -2925,7 +3249,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2864</v>
+        <v>3017</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -3036,7 +3360,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>3422</v>
+        <v>3414</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3147,7 +3471,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3176</v>
+        <v>3166</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3258,7 +3582,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3369</v>
+        <v>3586</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3369,7 +3693,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>4075</v>
+        <v>3488</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3480,7 +3804,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>4164</v>
+        <v>4011</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3591,7 +3915,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4227</v>
+        <v>3898</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -3702,7 +4026,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4394</v>
+        <v>4547</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -3813,7 +4137,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4396</v>
+        <v>4562</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -3924,7 +4248,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>5457</v>
+        <v>4615</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -4035,7 +4359,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5397</v>
+        <v>5511</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4146,7 +4470,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5359</v>
+        <v>5568</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4257,7 +4581,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5877</v>
+        <v>5700</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4368,7 +4692,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>6263</v>
+        <v>5688</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4479,7 +4803,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6500</v>
+        <v>5967</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4590,7 +4914,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6662</v>
+        <v>6403</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -4701,7 +5025,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6553</v>
+        <v>6506</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -4812,7 +5136,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7065</v>
+        <v>7048</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -4923,7 +5247,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7740</v>
+        <v>7697</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -5034,7 +5358,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7528</v>
+        <v>7675</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5145,7 +5469,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7640</v>
+        <v>8160</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5256,7 +5580,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>8376</v>
+        <v>7700</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5367,7 +5691,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>8585</v>
+        <v>7915</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5478,7 +5802,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8924</v>
+        <v>8332</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5589,7 +5913,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>8909</v>
+        <v>9069</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -5700,7 +6024,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>9085</v>
+        <v>8816</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -5811,7 +6135,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>8929</v>
+        <v>9182</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -5922,7 +6246,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9824</v>
+        <v>9914</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -6033,7 +6357,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>10050</v>
+        <v>9827</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6144,7 +6468,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10247</v>
+        <v>9757</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6255,7 +6579,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>9892</v>
+        <v>9860</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6366,7 +6690,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10980</v>
+        <v>10312</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6477,7 +6801,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>10483</v>
+        <v>10467</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6588,7 +6912,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>11073</v>
+        <v>10782</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -6699,7 +7023,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11284</v>
+        <v>11542</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -6810,7 +7134,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11329</v>
+        <v>11659</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -6921,7 +7245,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11373</v>
+        <v>11743</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -7032,7 +7356,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>11737</v>
+        <v>11894</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7143,7 +7467,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12443</v>
+        <v>12578</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7254,7 +7578,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12729</v>
+        <v>12847</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7365,7 +7689,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12478</v>
+        <v>12828</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7476,7 +7800,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>13408</v>
+        <v>12882</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7587,7 +7911,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13535</v>
+        <v>13694</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -7698,7 +8022,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13590</v>
+        <v>13480</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -7809,7 +8133,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>14064</v>
+        <v>13809</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -7920,7 +8244,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>13914</v>
+        <v>13792</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -8031,7 +8355,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14034</v>
+        <v>14543</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8142,7 +8466,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14960</v>
+        <v>14591</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8253,7 +8577,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14575</v>
+        <v>14739</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8364,7 +8688,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>14640</v>
+        <v>15029</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8475,7 +8799,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>14980</v>
+        <v>15744</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8586,7 +8910,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15920</v>
+        <v>15147</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -8697,7 +9021,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>16152</v>
+        <v>15982</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -8808,7 +9132,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16047</v>
+        <v>16397</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -8919,7 +9243,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16484</v>
+        <v>16726</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -9030,7 +9354,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16492</v>
+        <v>16750</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9141,7 +9465,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>16958</v>
+        <v>16712</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9252,7 +9576,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>16778</v>
+        <v>17459</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9363,7 +9687,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17065</v>
+        <v>17585</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9474,7 +9798,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17303</v>
+        <v>17798</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9585,7 +9909,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17795</v>
+        <v>17441</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -9696,7 +10020,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>18159</v>
+        <v>18291</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -9807,7 +10131,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18463</v>
+        <v>17897</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -9918,7 +10242,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18660</v>
+        <v>18421</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -10029,7 +10353,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18726</v>
+        <v>18463</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10140,7 +10464,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19388</v>
+        <v>19085</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10251,7 +10575,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19452</v>
+        <v>19070</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10362,7 +10686,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19739</v>
+        <v>19715</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10473,7 +10797,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>19998</v>
+        <v>19761</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10584,7 +10908,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>19909</v>
+        <v>20320</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -10695,7 +11019,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>20551</v>
+        <v>20203</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -10806,7 +11130,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20499</v>
+        <v>20916</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -10917,7 +11241,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>21034</v>
+        <v>21000</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -11028,7 +11352,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>20853</v>
+        <v>21235</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11139,7 +11463,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21652</v>
+        <v>21207</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11250,7 +11574,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21527</v>
+        <v>21868</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11361,7 +11685,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21527</v>
+        <v>21967</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11472,7 +11796,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>21675</v>
+        <v>21965</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11583,7 +11907,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>21859</v>
+        <v>21855</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -11694,7 +12018,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22390</v>
+        <v>22188</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -11805,7 +12129,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22759</v>
+        <v>22714</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -11916,7 +12240,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>22830</v>
+        <v>23288</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -12027,7 +12351,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23085</v>
+        <v>22855</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12138,7 +12462,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23288</v>
+        <v>23330</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12249,7 +12573,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23456</v>
+        <v>24185</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12360,7 +12684,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>23883</v>
+        <v>24301</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12471,7 +12795,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24532</v>
+        <v>24234</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -26476,7 +26800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -26681,4 +27005,980 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="9" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="9"/>
+    <col min="10" max="17" width="9.140625" style="12"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="J19" s="12">
+        <f>J13*10</f>
+        <v>200</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" ref="K19:Q19" si="0">K13*15</f>
+        <v>300</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20:Q20" si="1">J14*15</f>
+        <v>450</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" ref="J21:Q21" si="2">J15*15</f>
+        <v>450</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" ref="J22:Q22" si="3">J16*15</f>
+        <v>150</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="J25" s="12">
+        <f>J13*5</f>
+        <v>100</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" ref="K25:Q25" si="4">K13*5</f>
+        <v>100</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" ref="J26:Q26" si="5">J14*5</f>
+        <v>150</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27:Q27" si="6">J15*5</f>
+        <v>150</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="165" windowWidth="28830" windowHeight="4020" tabRatio="737" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="225" windowWidth="28830" windowHeight="3960" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -1648,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1470</v>
+        <v>1011</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1733</v>
+        <v>1508</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1425</v>
+        <v>1882</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>2179</v>
+        <v>2005</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>2354</v>
+        <v>2181</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2399</v>
+        <v>2028</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2383</v>
+        <v>2666</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>3017</v>
+        <v>2452</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>3414</v>
+        <v>2639</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3166</v>
+        <v>3497</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>3488</v>
+        <v>3890</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>4011</v>
+        <v>3936</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>3898</v>
+        <v>4300</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4547</v>
+        <v>4975</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4562</v>
+        <v>4935</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>4615</v>
+        <v>5205</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5511</v>
+        <v>5108</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5568</v>
+        <v>5976</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5700</v>
+        <v>5895</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>5688</v>
+        <v>6082</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>5967</v>
+        <v>6170</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6403</v>
+        <v>6476</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6506</v>
+        <v>7086</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7048</v>
+        <v>7440</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7697</v>
+        <v>7043</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7675</v>
+        <v>7129</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>8160</v>
+        <v>7701</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>7700</v>
+        <v>8470</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>7915</v>
+        <v>7888</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8332</v>
+        <v>8960</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>9069</v>
+        <v>9168</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>8816</v>
+        <v>9252</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9182</v>
+        <v>8915</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9914</v>
+        <v>9631</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9827</v>
+        <v>10052</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>9757</v>
+        <v>10002</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>9860</v>
+        <v>10613</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10312</v>
+        <v>10852</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>10467</v>
+        <v>11045</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>10782</v>
+        <v>10899</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11542</v>
+        <v>11527</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11659</v>
+        <v>11413</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11743</v>
+        <v>11469</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>11894</v>
+        <v>12287</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12578</v>
+        <v>12534</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12847</v>
+        <v>12641</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12828</v>
+        <v>12533</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>12882</v>
+        <v>13477</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13694</v>
+        <v>13360</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13480</v>
+        <v>13595</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>13809</v>
+        <v>14072</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>13792</v>
+        <v>14327</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14543</v>
+        <v>14181</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14591</v>
+        <v>14318</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14739</v>
+        <v>15214</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>15029</v>
+        <v>15040</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15744</v>
+        <v>15507</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15147</v>
+        <v>15219</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>15982</v>
+        <v>15966</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16397</v>
+        <v>16377</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16726</v>
+        <v>16036</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16750</v>
+        <v>16943</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>16712</v>
+        <v>17249</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>17459</v>
+        <v>17114</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17585</v>
+        <v>17054</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17798</v>
+        <v>17150</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17441</v>
+        <v>17697</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>18291</v>
+        <v>18154</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>17897</v>
+        <v>18150</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18421</v>
+        <v>18250</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18463</v>
+        <v>18707</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19085</v>
+        <v>19321</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19070</v>
+        <v>19271</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19715</v>
+        <v>19127</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>19761</v>
+        <v>19542</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>20320</v>
+        <v>20381</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>20203</v>
+        <v>19977</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20916</v>
+        <v>20963</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>21000</v>
+        <v>20674</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21235</v>
+        <v>21012</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21207</v>
+        <v>21205</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11574,7 +11574,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21868</v>
+        <v>21331</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21967</v>
+        <v>21654</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>21965</v>
+        <v>21607</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11907,7 +11907,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>21855</v>
+        <v>22461</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22188</v>
+        <v>22144</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22714</v>
+        <v>22917</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>23288</v>
+        <v>23366</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>22855</v>
+        <v>23138</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23330</v>
+        <v>23682</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>24185</v>
+        <v>23659</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>24301</v>
+        <v>23769</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24234</v>
+        <v>24316</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -27009,842 +27009,915 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="93.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="9" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="9"/>
-    <col min="10" max="17" width="9.140625" style="12"/>
-    <col min="18" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="6.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="93.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="9" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="9"/>
+    <col min="11" max="18" width="9.140625" style="12"/>
+    <col min="19" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="str">
+        <f>"INSERT INTO `buildings`(`name`) VALUES ('"&amp;A3&amp;"');"</f>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('продуктовый магазин ');</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="str">
+        <f t="shared" ref="B4:B37" si="0">"INSERT INTO `buildings`(`name`) VALUES ('"&amp;A4&amp;"');"</f>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('лесопилка ');</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('мастерская ');</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('предприятие ');</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('цех ');</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('фабрика ');</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('карьер ');</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('хим.завод ');</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('школа логики ');</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>249</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('школа обаяния ');</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('школа спорта ');</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="K15" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="L15" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('школа искусств ');</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('курсы повышения квалификации ');</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J19" s="12">
-        <f>J13*10</f>
+      <c r="K19" s="12">
+        <f>K13*10</f>
         <v>200</v>
       </c>
-      <c r="K19" s="12">
-        <f t="shared" ref="K19:Q19" si="0">K13*15</f>
+      <c r="L19" s="12">
+        <f t="shared" ref="L19:R19" si="1">L13*15</f>
         <v>300</v>
       </c>
-      <c r="L19" s="12">
-        <f t="shared" si="0"/>
+      <c r="M19" s="12">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M19" s="12">
-        <f t="shared" si="0"/>
+      <c r="N19" s="12">
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="N19" s="12">
-        <f t="shared" si="0"/>
+      <c r="O19" s="12">
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="O19" s="12">
-        <f t="shared" si="0"/>
+      <c r="P19" s="12">
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="P19" s="12">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="12">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="Q19" s="12">
-        <f t="shared" si="0"/>
+      <c r="R19" s="12">
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('школа профориентации ');</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J20" s="12">
-        <f t="shared" ref="J20:Q20" si="1">J14*15</f>
+      <c r="K20" s="12">
+        <f t="shared" ref="K20:R20" si="2">K14*15</f>
         <v>450</v>
       </c>
-      <c r="K20" s="12">
-        <f t="shared" si="1"/>
+      <c r="L20" s="12">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="L20" s="12">
-        <f t="shared" si="1"/>
+      <c r="M20" s="12">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="M20" s="12">
-        <f t="shared" si="1"/>
+      <c r="N20" s="12">
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="N20" s="12">
-        <f t="shared" si="1"/>
+      <c r="O20" s="12">
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="O20" s="12">
-        <f t="shared" si="1"/>
+      <c r="P20" s="12">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="P20" s="12">
-        <f t="shared" si="1"/>
+      <c r="Q20" s="12">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="Q20" s="12">
-        <f t="shared" si="1"/>
+      <c r="R20" s="12">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('клиника пластической хирургии');</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="J21" s="12">
-        <f t="shared" ref="J21:Q21" si="2">J15*15</f>
+      <c r="K21" s="12">
+        <f t="shared" ref="K21:R21" si="3">K15*15</f>
         <v>450</v>
       </c>
-      <c r="K21" s="12">
-        <f t="shared" si="2"/>
+      <c r="L21" s="12">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="L21" s="12">
-        <f t="shared" si="2"/>
+      <c r="M21" s="12">
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="M21" s="12">
-        <f t="shared" si="2"/>
+      <c r="N21" s="12">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N21" s="12">
-        <f t="shared" si="2"/>
+      <c r="O21" s="12">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="O21" s="12">
-        <f t="shared" si="2"/>
+      <c r="P21" s="12">
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="P21" s="12">
-        <f t="shared" si="2"/>
+      <c r="Q21" s="12">
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="Q21" s="12">
-        <f t="shared" si="2"/>
+      <c r="R21" s="12">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('генетическая лаборатория ');</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="J22" s="12">
-        <f t="shared" ref="J22:Q22" si="3">J16*15</f>
+      <c r="K22" s="12">
+        <f t="shared" ref="K22:R22" si="4">K16*15</f>
         <v>150</v>
       </c>
-      <c r="K22" s="12">
-        <f t="shared" si="3"/>
+      <c r="L22" s="12">
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="L22" s="12">
-        <f t="shared" si="3"/>
+      <c r="M22" s="12">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="M22" s="12">
-        <f t="shared" si="3"/>
+      <c r="N22" s="12">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="N22" s="12">
-        <f t="shared" si="3"/>
+      <c r="O22" s="12">
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="O22" s="12">
-        <f t="shared" si="3"/>
+      <c r="P22" s="12">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="P22" s="12">
-        <f t="shared" si="3"/>
+      <c r="Q22" s="12">
+        <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="Q22" s="12">
-        <f t="shared" si="3"/>
+      <c r="R22" s="12">
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('дет.дом ');</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="12">
-        <f>J13*5</f>
+      <c r="K25" s="12">
+        <f>K13*5</f>
         <v>100</v>
       </c>
-      <c r="K25" s="12">
-        <f t="shared" ref="K25:Q25" si="4">K13*5</f>
+      <c r="L25" s="12">
+        <f t="shared" ref="L25:R25" si="5">L13*5</f>
         <v>100</v>
       </c>
-      <c r="L25" s="12">
-        <f t="shared" si="4"/>
+      <c r="M25" s="12">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="M25" s="12">
-        <f t="shared" si="4"/>
+      <c r="N25" s="12">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="N25" s="12">
-        <f t="shared" si="4"/>
+      <c r="O25" s="12">
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="O25" s="12">
-        <f t="shared" si="4"/>
+      <c r="P25" s="12">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="P25" s="12">
-        <f t="shared" si="4"/>
+      <c r="Q25" s="12">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="Q25" s="12">
-        <f t="shared" si="4"/>
+      <c r="R25" s="12">
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('апартаменты');</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J26" s="12">
-        <f t="shared" ref="J26:Q26" si="5">J14*5</f>
+      <c r="K26" s="12">
+        <f t="shared" ref="K26:R26" si="6">K14*5</f>
         <v>150</v>
       </c>
-      <c r="K26" s="12">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
       <c r="L26" s="12">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="M26" s="12">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="N26" s="12">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="O26" s="12">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="P26" s="12">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="Q26" s="12">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" ref="J27:Q27" si="6">J15*5</f>
-        <v>150</v>
-      </c>
-      <c r="K27" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="L27" s="12">
+      <c r="M26" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="P26" s="12">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="M27" s="12">
+      <c r="Q26" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="R26" s="12">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27:R27" si="7">K15*5</f>
+        <v>150</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
       <c r="N27" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="O27" s="12">
-        <f t="shared" si="6"/>
+      <c r="P27" s="12">
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="P27" s="12">
-        <f t="shared" si="6"/>
+      <c r="Q27" s="12">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="6"/>
+      <c r="R27" s="12">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -27852,128 +27925,157 @@
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('курорт ');</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="G31" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="J31" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('парк отдыха');</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('бойцовский клуб');</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('курсы рукоделия');</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('лаборатория облучения');</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('стадион');</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `buildings`(`name`) VALUES ('спа-салон');</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>352</v>
       </c>
     </row>

--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="225" windowWidth="28830" windowHeight="3960" tabRatio="737"/>
+    <workbookView xWindow="-15" yWindow="225" windowWidth="28830" windowHeight="3960" tabRatio="737" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="техника" sheetId="18" r:id="rId5"/>
     <sheet name="комфорт" sheetId="19" r:id="rId6"/>
     <sheet name="Лист1" sheetId="20" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="454">
   <si>
     <t>гостиная</t>
   </si>
@@ -1226,6 +1227,165 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>продуктовый магазин</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "продукты"</t>
+  </si>
+  <si>
+    <t>лесопилка</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "дерево"</t>
+  </si>
+  <si>
+    <t>мастерская</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "металл"</t>
+  </si>
+  <si>
+    <t>предприятие</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "пластик"</t>
+  </si>
+  <si>
+    <t>цех</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "микроэлектроника"</t>
+  </si>
+  <si>
+    <t>фабрика</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "одежда"</t>
+  </si>
+  <si>
+    <t>карьер</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "камень"</t>
+  </si>
+  <si>
+    <t>хим.завод</t>
+  </si>
+  <si>
+    <t>покупка ресурсов "химия"</t>
+  </si>
+  <si>
+    <t>школа логики</t>
+  </si>
+  <si>
+    <t>повышает интеллект выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t>школа обаяния</t>
+  </si>
+  <si>
+    <t>повышает харизму выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t>школа спорта</t>
+  </si>
+  <si>
+    <t>повышает силу выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t>школа искусств</t>
+  </si>
+  <si>
+    <t>повышает творчество выбранного персонажа на 1</t>
+  </si>
+  <si>
+    <t>курсы повышения квалификации</t>
+  </si>
+  <si>
+    <t>+50% к зп</t>
+  </si>
+  <si>
+    <t>школа профориентации</t>
+  </si>
+  <si>
+    <t>сменить призвание</t>
+  </si>
+  <si>
+    <t>исправление обычной части тела у выбранного персонажа</t>
+  </si>
+  <si>
+    <t>генетическая лаборатория</t>
+  </si>
+  <si>
+    <t>клонировать персонажа</t>
+  </si>
+  <si>
+    <t>дет.дом</t>
+  </si>
+  <si>
+    <t>взять приемного ребенка</t>
+  </si>
+  <si>
+    <t>интернет-кафе</t>
+  </si>
+  <si>
+    <t>плодовитость</t>
+  </si>
+  <si>
+    <t>тренажерный зал</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>Приемный ребенок</t>
+  </si>
+  <si>
+    <t>Больше сыновей</t>
+  </si>
+  <si>
+    <t>Интеллект</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>Сертификат на ресурсы 10 шт.</t>
+  </si>
+  <si>
+    <t>Повышение навыка</t>
+  </si>
+  <si>
+    <t>Бафф на женатого сына</t>
+  </si>
+  <si>
+    <t>Бафф на родителя</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2506,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>522</v>
+        <v>837</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2460,7 +2620,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1011</v>
+        <v>1297</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2574,7 +2734,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1508</v>
+        <v>1616</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2679,7 +2839,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1882</v>
+        <v>1904</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2793,7 +2953,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>2005</v>
+        <v>2101</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -2907,7 +3067,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>2181</v>
+        <v>2248</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -3021,7 +3181,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>2028</v>
+        <v>1892</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -3135,7 +3295,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2666</v>
+        <v>2177</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -3249,7 +3409,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>2452</v>
+        <v>3168</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -3360,7 +3520,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>2639</v>
+        <v>3055</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3471,7 +3631,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3497</v>
+        <v>3269</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3582,7 +3742,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3586</v>
+        <v>3884</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3693,7 +3853,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>3890</v>
+        <v>4044</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3804,7 +3964,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>3936</v>
+        <v>3897</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -3915,7 +4075,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4300</v>
+        <v>4144</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -4026,7 +4186,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4975</v>
+        <v>4424</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -4137,7 +4297,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4935</v>
+        <v>4580</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -4248,7 +4408,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>5205</v>
+        <v>4996</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -4359,7 +4519,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>5108</v>
+        <v>4999</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4470,7 +4630,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5976</v>
+        <v>5967</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4581,7 +4741,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5895</v>
+        <v>5900</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4692,7 +4852,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>6082</v>
+        <v>6000</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4803,7 +4963,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6170</v>
+        <v>6514</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -4914,7 +5074,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6476</v>
+        <v>6818</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -5025,7 +5185,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>7086</v>
+        <v>6485</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -5136,7 +5296,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>7440</v>
+        <v>6681</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -5247,7 +5407,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7043</v>
+        <v>7555</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -5358,7 +5518,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7129</v>
+        <v>7255</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5469,7 +5629,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7701</v>
+        <v>7966</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5580,7 +5740,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>8470</v>
+        <v>8128</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5691,7 +5851,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>7888</v>
+        <v>8420</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5802,7 +5962,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8960</v>
+        <v>8973</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -5913,7 +6073,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>9168</v>
+        <v>9237</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -6024,7 +6184,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>9252</v>
+        <v>9361</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -6135,7 +6295,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>8915</v>
+        <v>9701</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -6246,7 +6406,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9631</v>
+        <v>9375</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -6357,7 +6517,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>10052</v>
+        <v>9645</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6468,7 +6628,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10002</v>
+        <v>10256</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6579,7 +6739,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>10613</v>
+        <v>10313</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6690,7 +6850,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10852</v>
+        <v>10178</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6801,7 +6961,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>11045</v>
+        <v>11119</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -6912,7 +7072,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>10899</v>
+        <v>11037</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -7023,7 +7183,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11527</v>
+        <v>11518</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -7134,7 +7294,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11413</v>
+        <v>11743</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -7245,7 +7405,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11469</v>
+        <v>11708</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -7356,7 +7516,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>12287</v>
+        <v>11633</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7467,7 +7627,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12534</v>
+        <v>12619</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7578,7 +7738,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12641</v>
+        <v>12388</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7689,7 +7849,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12533</v>
+        <v>12458</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7800,7 +7960,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>13477</v>
+        <v>12659</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -7911,7 +8071,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13360</v>
+        <v>13471</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -8022,7 +8182,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13595</v>
+        <v>13359</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -8133,7 +8293,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>14072</v>
+        <v>14219</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -8244,7 +8404,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>14327</v>
+        <v>13888</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -8355,7 +8515,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14181</v>
+        <v>14100</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8466,7 +8626,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14318</v>
+        <v>14925</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8577,7 +8737,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>15214</v>
+        <v>14373</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8688,7 +8848,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>15040</v>
+        <v>15427</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8799,7 +8959,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15507</v>
+        <v>15416</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -8910,7 +9070,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15219</v>
+        <v>15476</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -9021,7 +9181,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>15966</v>
+        <v>15659</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -9132,7 +9292,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16377</v>
+        <v>16487</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -9243,7 +9403,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16036</v>
+        <v>16674</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -9354,7 +9514,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16943</v>
+        <v>16634</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9465,7 +9625,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>17249</v>
+        <v>17090</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9576,7 +9736,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>17114</v>
+        <v>17500</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9687,7 +9847,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17054</v>
+        <v>17049</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9798,7 +9958,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17150</v>
+        <v>17206</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -9909,7 +10069,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17697</v>
+        <v>17408</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -10020,7 +10180,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>18154</v>
+        <v>17978</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -10131,7 +10291,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18150</v>
+        <v>18442</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -10242,7 +10402,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18250</v>
+        <v>18855</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -10353,7 +10513,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18707</v>
+        <v>18476</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10464,7 +10624,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19321</v>
+        <v>19377</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10575,7 +10735,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19271</v>
+        <v>19609</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10686,7 +10846,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19127</v>
+        <v>19827</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10797,7 +10957,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>19542</v>
+        <v>20225</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -10908,7 +11068,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>20381</v>
+        <v>19781</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -11019,7 +11179,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>19977</v>
+        <v>20711</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -11130,7 +11290,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20963</v>
+        <v>20280</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -11241,7 +11401,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>20674</v>
+        <v>21083</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -11352,7 +11512,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21012</v>
+        <v>21043</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11463,7 +11623,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21205</v>
+        <v>21525</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11574,7 +11734,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21331</v>
+        <v>21335</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11685,7 +11845,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21654</v>
+        <v>21884</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11796,7 +11956,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>21607</v>
+        <v>22430</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -11907,7 +12067,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>22461</v>
+        <v>22412</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -12018,7 +12178,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22144</v>
+        <v>22101</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -12129,7 +12289,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22917</v>
+        <v>22382</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -12240,7 +12400,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>23366</v>
+        <v>22906</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -12351,7 +12511,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23138</v>
+        <v>23490</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12462,7 +12622,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23682</v>
+        <v>23159</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12573,7 +12733,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23659</v>
+        <v>23857</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12684,7 +12844,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>23769</v>
+        <v>24059</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12795,7 +12955,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24316</v>
+        <v>24061</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -27011,7 +27171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -28083,4 +28243,755 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>40000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>80000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>160000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>320000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>640000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1280000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>2560000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12">
+        <v>99000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13">
+        <v>87000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" t="s">
+        <v>447</v>
+      </c>
+      <c r="G13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14">
+        <v>38000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15">
+        <v>28000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>414</v>
+      </c>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D16">
+        <v>28000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17">
+        <v>53000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D18">
+        <v>83000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19">
+        <v>55000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>422</v>
+      </c>
+      <c r="F19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20">
+        <v>27000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21">
+        <v>69000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22">
+        <v>62000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>428</v>
+      </c>
+      <c r="F22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23">
+        <v>3000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D24">
+        <v>29000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25">
+        <v>34000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26">
+        <v>82000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>437</v>
+      </c>
+      <c r="F27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28">
+        <v>3000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>444</v>
+      </c>
+      <c r="G28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D29">
+        <v>84000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30">
+        <v>9000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" t="s">
+        <v>380</v>
+      </c>
+      <c r="D31">
+        <v>95000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D32">
+        <v>46000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33">
+        <v>45000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C34" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34">
+        <v>88000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35">
+        <v>3000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" t="s">
+        <v>445</v>
+      </c>
+      <c r="G35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36">
+        <v>52000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>406</v>
+      </c>
+      <c r="C37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37">
+        <v>51000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/house.xlsx
+++ b/house.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="225" windowWidth="28830" windowHeight="3960" tabRatio="737" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="285" windowWidth="28830" windowHeight="3900" tabRatio="737" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="комнаты и дома" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="комфорт" sheetId="19" r:id="rId6"/>
     <sheet name="Лист1" sheetId="20" r:id="rId7"/>
     <sheet name="Лист2" sheetId="21" r:id="rId8"/>
+    <sheet name="Лист3" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="493">
   <si>
     <t>гостиная</t>
   </si>
@@ -1386,6 +1387,123 @@
   </si>
   <si>
     <t>project</t>
+  </si>
+  <si>
+    <t>детская</t>
+  </si>
+  <si>
+    <t>стол</t>
+  </si>
+  <si>
+    <t>помещение</t>
+  </si>
+  <si>
+    <t>1 [-&gt;хижина]</t>
+  </si>
+  <si>
+    <t>2 [-&gt;маленький домик]</t>
+  </si>
+  <si>
+    <t>3 [-&gt;уютный домик]</t>
+  </si>
+  <si>
+    <t>4 [-&gt;средний дом]</t>
+  </si>
+  <si>
+    <t>5 [-&gt;большой дом]</t>
+  </si>
+  <si>
+    <t>6 [-&gt;особняк]</t>
+  </si>
+  <si>
+    <t>7 [-&gt;усадьба]</t>
+  </si>
+  <si>
+    <t>8 [-&gt;фазенда]</t>
+  </si>
+  <si>
+    <t>9 [-&gt;вилла]</t>
+  </si>
+  <si>
+    <t>10 [-&gt;дворец]</t>
+  </si>
+  <si>
+    <t>11 [-&gt;продуктовый магазин ]</t>
+  </si>
+  <si>
+    <t>12 [-&gt;лесопилка ]</t>
+  </si>
+  <si>
+    <t>13 [-&gt;мастерская ]</t>
+  </si>
+  <si>
+    <t>14 [-&gt;предприятие ]</t>
+  </si>
+  <si>
+    <t>15 [-&gt;цех ]</t>
+  </si>
+  <si>
+    <t>16 [-&gt;фабрика ]</t>
+  </si>
+  <si>
+    <t>17 [-&gt;карьер ]</t>
+  </si>
+  <si>
+    <t>18 [-&gt;хим.завод ]</t>
+  </si>
+  <si>
+    <t>19 [-&gt;школа логики ]</t>
+  </si>
+  <si>
+    <t>20 [-&gt;школа обаяния ]</t>
+  </si>
+  <si>
+    <t>21 [-&gt;школа спорта ]</t>
+  </si>
+  <si>
+    <t>22 [-&gt;школа искусств ]</t>
+  </si>
+  <si>
+    <t>23 [-&gt;курсы повышения квалификации ]</t>
+  </si>
+  <si>
+    <t>24 [-&gt;школа профориентации ]</t>
+  </si>
+  <si>
+    <t>25 [-&gt;клиника пластической хирургии]</t>
+  </si>
+  <si>
+    <t>26 [-&gt;генетическая лаборатория ]</t>
+  </si>
+  <si>
+    <t>27 [-&gt;дет.дом ]</t>
+  </si>
+  <si>
+    <t>28 [-&gt;апартаменты]</t>
+  </si>
+  <si>
+    <t>29 [-&gt;интернет-кафе]</t>
+  </si>
+  <si>
+    <t>30 [-&gt;парк отдыха]</t>
+  </si>
+  <si>
+    <t>31 [-&gt;бойцовский клуб]</t>
+  </si>
+  <si>
+    <t>32 [-&gt;курсы рукоделия]</t>
+  </si>
+  <si>
+    <t>33 [-&gt;лаборатория облучения]</t>
+  </si>
+  <si>
+    <t>34 [-&gt;тренажерный зал]</t>
+  </si>
+  <si>
+    <t>35 [-&gt;спа-салон]</t>
+  </si>
+  <si>
+    <t>36 [-&gt;курорт]</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2624,7 @@
       </c>
       <c r="AF2">
         <f ca="1">A2*250+RANDBETWEEN(100,1000)</f>
-        <v>837</v>
+        <v>525</v>
       </c>
       <c r="AG2">
         <v>926</v>
@@ -2620,7 +2738,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" ca="1" si="2">A3*250+RANDBETWEEN(100,1000)</f>
-        <v>1297</v>
+        <v>677</v>
       </c>
       <c r="AG3">
         <v>750</v>
@@ -2734,7 +2852,7 @@
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
-        <v>1616</v>
+        <v>1204</v>
       </c>
       <c r="AG4">
         <v>1275</v>
@@ -2839,7 +2957,7 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1904</v>
+        <v>1883</v>
       </c>
       <c r="AG5">
         <v>1307</v>
@@ -2953,7 +3071,7 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
-        <v>2101</v>
+        <v>2059</v>
       </c>
       <c r="AG6">
         <v>1458</v>
@@ -3067,7 +3185,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
-        <v>2248</v>
+        <v>1834</v>
       </c>
       <c r="AG7">
         <v>1653</v>
@@ -3181,7 +3299,7 @@
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
-        <v>1892</v>
+        <v>2120</v>
       </c>
       <c r="AG8">
         <v>2715</v>
@@ -3295,7 +3413,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>2177</v>
+        <v>2907</v>
       </c>
       <c r="AG9">
         <v>2540</v>
@@ -3409,7 +3527,7 @@
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
-        <v>3168</v>
+        <v>2690</v>
       </c>
       <c r="AG10">
         <v>3126</v>
@@ -3520,7 +3638,7 @@
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
-        <v>3055</v>
+        <v>2893</v>
       </c>
       <c r="AG11">
         <v>2740</v>
@@ -3631,7 +3749,7 @@
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
-        <v>3269</v>
+        <v>3490</v>
       </c>
       <c r="AG12">
         <v>2980</v>
@@ -3742,7 +3860,7 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>3884</v>
+        <v>3415</v>
       </c>
       <c r="AG13">
         <v>3524</v>
@@ -3853,7 +3971,7 @@
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
-        <v>4044</v>
+        <v>3375</v>
       </c>
       <c r="AG14">
         <v>3977</v>
@@ -3964,7 +4082,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>3897</v>
+        <v>4015</v>
       </c>
       <c r="AG15">
         <v>3948</v>
@@ -4075,7 +4193,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>4144</v>
+        <v>4189</v>
       </c>
       <c r="AG16">
         <v>4237</v>
@@ -4186,7 +4304,7 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>4424</v>
+        <v>4665</v>
       </c>
       <c r="AG17">
         <v>4519</v>
@@ -4297,7 +4415,7 @@
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="2"/>
-        <v>4580</v>
+        <v>4404</v>
       </c>
       <c r="AG18">
         <v>4616</v>
@@ -4408,7 +4526,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="2"/>
-        <v>4996</v>
+        <v>4934</v>
       </c>
       <c r="AG19">
         <v>5326</v>
@@ -4519,7 +4637,7 @@
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="2"/>
-        <v>4999</v>
+        <v>5626</v>
       </c>
       <c r="AG20">
         <v>5212</v>
@@ -4630,7 +4748,7 @@
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="2"/>
-        <v>5967</v>
+        <v>5114</v>
       </c>
       <c r="AG21">
         <v>5946</v>
@@ -4741,7 +4859,7 @@
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="2"/>
-        <v>5900</v>
+        <v>5947</v>
       </c>
       <c r="AG22">
         <v>5912</v>
@@ -4852,7 +4970,7 @@
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="2"/>
-        <v>6000</v>
+        <v>5815</v>
       </c>
       <c r="AG23">
         <v>5936</v>
@@ -4963,7 +5081,7 @@
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="2"/>
-        <v>6514</v>
+        <v>6363</v>
       </c>
       <c r="AG24">
         <v>6212</v>
@@ -5074,7 +5192,7 @@
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="2"/>
-        <v>6818</v>
+        <v>6237</v>
       </c>
       <c r="AG25">
         <v>6811</v>
@@ -5185,7 +5303,7 @@
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="2"/>
-        <v>6485</v>
+        <v>6605</v>
       </c>
       <c r="AG26">
         <v>6764</v>
@@ -5296,7 +5414,7 @@
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="2"/>
-        <v>6681</v>
+        <v>7024</v>
       </c>
       <c r="AG27">
         <v>7289</v>
@@ -5407,7 +5525,7 @@
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="2"/>
-        <v>7555</v>
+        <v>6882</v>
       </c>
       <c r="AG28">
         <v>7106</v>
@@ -5518,7 +5636,7 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="2"/>
-        <v>7255</v>
+        <v>7971</v>
       </c>
       <c r="AG29">
         <v>7254</v>
@@ -5629,7 +5747,7 @@
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="2"/>
-        <v>7966</v>
+        <v>7847</v>
       </c>
       <c r="AG30">
         <v>7971</v>
@@ -5740,7 +5858,7 @@
       </c>
       <c r="AF31">
         <f t="shared" ca="1" si="2"/>
-        <v>8128</v>
+        <v>7683</v>
       </c>
       <c r="AG31">
         <v>8057</v>
@@ -5851,7 +5969,7 @@
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="2"/>
-        <v>8420</v>
+        <v>7933</v>
       </c>
       <c r="AG32">
         <v>7935</v>
@@ -5962,7 +6080,7 @@
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="2"/>
-        <v>8973</v>
+        <v>8328</v>
       </c>
       <c r="AG33">
         <v>8406</v>
@@ -6073,7 +6191,7 @@
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="2"/>
-        <v>9237</v>
+        <v>8500</v>
       </c>
       <c r="AG34">
         <v>8509</v>
@@ -6184,7 +6302,7 @@
       </c>
       <c r="AF35">
         <f t="shared" ca="1" si="2"/>
-        <v>9361</v>
+        <v>8893</v>
       </c>
       <c r="AG35">
         <v>9347</v>
@@ -6295,7 +6413,7 @@
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="2"/>
-        <v>9701</v>
+        <v>9621</v>
       </c>
       <c r="AG36">
         <v>9265</v>
@@ -6406,7 +6524,7 @@
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="2"/>
-        <v>9375</v>
+        <v>9472</v>
       </c>
       <c r="AG37">
         <v>9762</v>
@@ -6517,7 +6635,7 @@
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="2"/>
-        <v>9645</v>
+        <v>9985</v>
       </c>
       <c r="AG38">
         <v>9422</v>
@@ -6628,7 +6746,7 @@
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="2"/>
-        <v>10256</v>
+        <v>10464</v>
       </c>
       <c r="AG39">
         <v>10371</v>
@@ -6739,7 +6857,7 @@
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="2"/>
-        <v>10313</v>
+        <v>10420</v>
       </c>
       <c r="AG40">
         <v>10002</v>
@@ -6850,7 +6968,7 @@
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="2"/>
-        <v>10178</v>
+        <v>10562</v>
       </c>
       <c r="AG41">
         <v>10221</v>
@@ -6961,7 +7079,7 @@
       </c>
       <c r="AF42">
         <f t="shared" ca="1" si="2"/>
-        <v>11119</v>
+        <v>10429</v>
       </c>
       <c r="AG42">
         <v>10651</v>
@@ -7072,7 +7190,7 @@
       </c>
       <c r="AF43">
         <f t="shared" ca="1" si="2"/>
-        <v>11037</v>
+        <v>10661</v>
       </c>
       <c r="AG43">
         <v>10850</v>
@@ -7183,7 +7301,7 @@
       </c>
       <c r="AF44">
         <f t="shared" ca="1" si="2"/>
-        <v>11518</v>
+        <v>11497</v>
       </c>
       <c r="AG44">
         <v>10952</v>
@@ -7294,7 +7412,7 @@
       </c>
       <c r="AF45">
         <f t="shared" ca="1" si="2"/>
-        <v>11743</v>
+        <v>11479</v>
       </c>
       <c r="AG45">
         <v>11684</v>
@@ -7405,7 +7523,7 @@
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="2"/>
-        <v>11708</v>
+        <v>12250</v>
       </c>
       <c r="AG46">
         <v>11883</v>
@@ -7516,7 +7634,7 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="2"/>
-        <v>11633</v>
+        <v>11837</v>
       </c>
       <c r="AG47">
         <v>12492</v>
@@ -7627,7 +7745,7 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="2"/>
-        <v>12619</v>
+        <v>12534</v>
       </c>
       <c r="AG48">
         <v>12547</v>
@@ -7738,7 +7856,7 @@
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="2"/>
-        <v>12388</v>
+        <v>12444</v>
       </c>
       <c r="AG49">
         <v>12337</v>
@@ -7849,7 +7967,7 @@
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="2"/>
-        <v>12458</v>
+        <v>12776</v>
       </c>
       <c r="AG50">
         <v>12886</v>
@@ -7960,7 +8078,7 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="2"/>
-        <v>12659</v>
+        <v>13326</v>
       </c>
       <c r="AG51">
         <v>12955</v>
@@ -8071,7 +8189,7 @@
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="2"/>
-        <v>13471</v>
+        <v>13350</v>
       </c>
       <c r="AG52">
         <v>13066</v>
@@ -8182,7 +8300,7 @@
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="2"/>
-        <v>13359</v>
+        <v>13153</v>
       </c>
       <c r="AG53">
         <v>13486</v>
@@ -8293,7 +8411,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="2"/>
-        <v>14219</v>
+        <v>13891</v>
       </c>
       <c r="AG54">
         <v>13548</v>
@@ -8404,7 +8522,7 @@
       </c>
       <c r="AF55">
         <f t="shared" ca="1" si="2"/>
-        <v>13888</v>
+        <v>13922</v>
       </c>
       <c r="AG55">
         <v>14101</v>
@@ -8515,7 +8633,7 @@
       </c>
       <c r="AF56">
         <f t="shared" ca="1" si="2"/>
-        <v>14100</v>
+        <v>14617</v>
       </c>
       <c r="AG56">
         <v>14717</v>
@@ -8626,7 +8744,7 @@
       </c>
       <c r="AF57">
         <f t="shared" ca="1" si="2"/>
-        <v>14925</v>
+        <v>14678</v>
       </c>
       <c r="AG57">
         <v>14401</v>
@@ -8737,7 +8855,7 @@
       </c>
       <c r="AF58">
         <f t="shared" ca="1" si="2"/>
-        <v>14373</v>
+        <v>14450</v>
       </c>
       <c r="AG58">
         <v>14592</v>
@@ -8848,7 +8966,7 @@
       </c>
       <c r="AF59">
         <f t="shared" ca="1" si="2"/>
-        <v>15427</v>
+        <v>15124</v>
       </c>
       <c r="AG59">
         <v>15345</v>
@@ -8959,7 +9077,7 @@
       </c>
       <c r="AF60">
         <f t="shared" ca="1" si="2"/>
-        <v>15416</v>
+        <v>15567</v>
       </c>
       <c r="AG60">
         <v>15559</v>
@@ -9070,7 +9188,7 @@
       </c>
       <c r="AF61">
         <f t="shared" ca="1" si="2"/>
-        <v>15476</v>
+        <v>15416</v>
       </c>
       <c r="AG61">
         <v>15654</v>
@@ -9181,7 +9299,7 @@
       </c>
       <c r="AF62">
         <f t="shared" ca="1" si="2"/>
-        <v>15659</v>
+        <v>15812</v>
       </c>
       <c r="AG62">
         <v>15409</v>
@@ -9292,7 +9410,7 @@
       </c>
       <c r="AF63">
         <f t="shared" ca="1" si="2"/>
-        <v>16487</v>
+        <v>16072</v>
       </c>
       <c r="AG63">
         <v>16443</v>
@@ -9403,7 +9521,7 @@
       </c>
       <c r="AF64">
         <f t="shared" ca="1" si="2"/>
-        <v>16674</v>
+        <v>15944</v>
       </c>
       <c r="AG64">
         <v>16375</v>
@@ -9514,7 +9632,7 @@
       </c>
       <c r="AF65">
         <f t="shared" ca="1" si="2"/>
-        <v>16634</v>
+        <v>16610</v>
       </c>
       <c r="AG65">
         <v>16606</v>
@@ -9625,7 +9743,7 @@
       </c>
       <c r="AF66">
         <f t="shared" ca="1" si="2"/>
-        <v>17090</v>
+        <v>16443</v>
       </c>
       <c r="AG66">
         <v>17010</v>
@@ -9736,7 +9854,7 @@
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF96" ca="1" si="26">A67*250+RANDBETWEEN(100,1000)</f>
-        <v>17500</v>
+        <v>16625</v>
       </c>
       <c r="AG67">
         <v>16610</v>
@@ -9847,7 +9965,7 @@
       </c>
       <c r="AF68">
         <f t="shared" ca="1" si="26"/>
-        <v>17049</v>
+        <v>17187</v>
       </c>
       <c r="AG68">
         <v>17450</v>
@@ -9958,7 +10076,7 @@
       </c>
       <c r="AF69">
         <f t="shared" ca="1" si="26"/>
-        <v>17206</v>
+        <v>17307</v>
       </c>
       <c r="AG69">
         <v>17332</v>
@@ -10069,7 +10187,7 @@
       </c>
       <c r="AF70">
         <f t="shared" ca="1" si="26"/>
-        <v>17408</v>
+        <v>17512</v>
       </c>
       <c r="AG70">
         <v>18037</v>
@@ -10180,7 +10298,7 @@
       </c>
       <c r="AF71">
         <f t="shared" ca="1" si="26"/>
-        <v>17978</v>
+        <v>17948</v>
       </c>
       <c r="AG71">
         <v>18347</v>
@@ -10291,7 +10409,7 @@
       </c>
       <c r="AF72">
         <f t="shared" ca="1" si="26"/>
-        <v>18442</v>
+        <v>17926</v>
       </c>
       <c r="AG72">
         <v>18582</v>
@@ -10402,7 +10520,7 @@
       </c>
       <c r="AF73">
         <f t="shared" ca="1" si="26"/>
-        <v>18855</v>
+        <v>18148</v>
       </c>
       <c r="AG73">
         <v>18175</v>
@@ -10513,7 +10631,7 @@
       </c>
       <c r="AF74">
         <f t="shared" ca="1" si="26"/>
-        <v>18476</v>
+        <v>18656</v>
       </c>
       <c r="AG74">
         <v>18738</v>
@@ -10624,7 +10742,7 @@
       </c>
       <c r="AF75">
         <f t="shared" ca="1" si="26"/>
-        <v>19377</v>
+        <v>19309</v>
       </c>
       <c r="AG75">
         <v>19047</v>
@@ -10735,7 +10853,7 @@
       </c>
       <c r="AF76">
         <f t="shared" ca="1" si="26"/>
-        <v>19609</v>
+        <v>19248</v>
       </c>
       <c r="AG76">
         <v>19381</v>
@@ -10846,7 +10964,7 @@
       </c>
       <c r="AF77">
         <f t="shared" ca="1" si="26"/>
-        <v>19827</v>
+        <v>19674</v>
       </c>
       <c r="AG77">
         <v>19600</v>
@@ -10957,7 +11075,7 @@
       </c>
       <c r="AF78">
         <f t="shared" ca="1" si="26"/>
-        <v>20225</v>
+        <v>20020</v>
       </c>
       <c r="AG78">
         <v>19823</v>
@@ -11068,7 +11186,7 @@
       </c>
       <c r="AF79">
         <f t="shared" ca="1" si="26"/>
-        <v>19781</v>
+        <v>20418</v>
       </c>
       <c r="AG79">
         <v>20353</v>
@@ -11179,7 +11297,7 @@
       </c>
       <c r="AF80">
         <f t="shared" ca="1" si="26"/>
-        <v>20711</v>
+        <v>20491</v>
       </c>
       <c r="AG80">
         <v>20456</v>
@@ -11290,7 +11408,7 @@
       </c>
       <c r="AF81">
         <f t="shared" ca="1" si="26"/>
-        <v>20280</v>
+        <v>20151</v>
       </c>
       <c r="AG81">
         <v>20378</v>
@@ -11401,7 +11519,7 @@
       </c>
       <c r="AF82">
         <f t="shared" ca="1" si="26"/>
-        <v>21083</v>
+        <v>20470</v>
       </c>
       <c r="AG82">
         <v>20472</v>
@@ -11512,7 +11630,7 @@
       </c>
       <c r="AF83">
         <f t="shared" ca="1" si="26"/>
-        <v>21043</v>
+        <v>20783</v>
       </c>
       <c r="AG83">
         <v>20734</v>
@@ -11623,7 +11741,7 @@
       </c>
       <c r="AF84">
         <f t="shared" ca="1" si="26"/>
-        <v>21525</v>
+        <v>21337</v>
       </c>
       <c r="AG84">
         <v>21249</v>
@@ -11734,7 +11852,7 @@
       </c>
       <c r="AF85">
         <f t="shared" ca="1" si="26"/>
-        <v>21335</v>
+        <v>21284</v>
       </c>
       <c r="AG85">
         <v>21425</v>
@@ -11845,7 +11963,7 @@
       </c>
       <c r="AF86">
         <f t="shared" ca="1" si="26"/>
-        <v>21884</v>
+        <v>22211</v>
       </c>
       <c r="AG86">
         <v>21500</v>
@@ -11956,7 +12074,7 @@
       </c>
       <c r="AF87">
         <f t="shared" ca="1" si="26"/>
-        <v>22430</v>
+        <v>22011</v>
       </c>
       <c r="AG87">
         <v>21906</v>
@@ -12067,7 +12185,7 @@
       </c>
       <c r="AF88">
         <f t="shared" ca="1" si="26"/>
-        <v>22412</v>
+        <v>22693</v>
       </c>
       <c r="AG88">
         <v>22430</v>
@@ -12178,7 +12296,7 @@
       </c>
       <c r="AF89">
         <f t="shared" ca="1" si="26"/>
-        <v>22101</v>
+        <v>22544</v>
       </c>
       <c r="AG89">
         <v>22315</v>
@@ -12289,7 +12407,7 @@
       </c>
       <c r="AF90">
         <f t="shared" ca="1" si="26"/>
-        <v>22382</v>
+        <v>22949</v>
       </c>
       <c r="AG90">
         <v>22402</v>
@@ -12400,7 +12518,7 @@
       </c>
       <c r="AF91">
         <f t="shared" ca="1" si="26"/>
-        <v>22906</v>
+        <v>23107</v>
       </c>
       <c r="AG91">
         <v>23186</v>
@@ -12511,7 +12629,7 @@
       </c>
       <c r="AF92">
         <f t="shared" ca="1" si="26"/>
-        <v>23490</v>
+        <v>23685</v>
       </c>
       <c r="AG92">
         <v>23257</v>
@@ -12622,7 +12740,7 @@
       </c>
       <c r="AF93">
         <f t="shared" ca="1" si="26"/>
-        <v>23159</v>
+        <v>23138</v>
       </c>
       <c r="AG93">
         <v>23554</v>
@@ -12733,7 +12851,7 @@
       </c>
       <c r="AF94">
         <f t="shared" ca="1" si="26"/>
-        <v>23857</v>
+        <v>23903</v>
       </c>
       <c r="AG94">
         <v>24081</v>
@@ -12844,7 +12962,7 @@
       </c>
       <c r="AF95">
         <f t="shared" ca="1" si="26"/>
-        <v>24059</v>
+        <v>23982</v>
       </c>
       <c r="AG95">
         <v>23828</v>
@@ -12955,7 +13073,7 @@
       </c>
       <c r="AF96">
         <f t="shared" ca="1" si="26"/>
-        <v>24061</v>
+        <v>24559</v>
       </c>
       <c r="AG96">
         <v>24192</v>
@@ -27171,7 +27289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -28994,4 +29112,476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>